--- a/HW5/Banks.xlsx
+++ b/HW5/Banks.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crouan/Documents/GitHub/DataMining-HW1/Data-Mining/HW5/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="315" windowWidth="14940" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020"/>
   </bookViews>
   <sheets>
     <sheet name="Bank Financial Condition" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,16 +56,16 @@
     <t>Obs</t>
   </si>
   <si>
-    <t>TotCap/Assets</t>
+    <t>Financial Condition</t>
   </si>
   <si>
-    <t>TotExp/Assets</t>
+    <t>TotCap.Assets</t>
   </si>
   <si>
-    <t>TotLns&amp;Lses/Assets</t>
+    <t>TotExp.Assets</t>
   </si>
   <si>
-    <t>Financial Condition</t>
+    <t>TotLns.Lses.Assets</t>
   </si>
 </sst>
 </file>
@@ -153,12 +166,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,12 +201,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -400,29 +413,29 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="47" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,7 +452,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -456,7 +469,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -473,7 +486,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -490,7 +503,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -507,7 +520,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -524,7 +537,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -541,7 +554,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -558,7 +571,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -575,7 +588,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -592,7 +605,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -609,7 +622,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -626,7 +639,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -643,7 +656,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -660,7 +673,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -677,7 +690,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -694,7 +707,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -711,7 +724,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -728,7 +741,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -745,7 +758,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
